--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15421EC2-663F-4869-B0F5-36B97E3BDB9C}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31FF3F9C-B54F-4C7A-8CE2-A9770E610D01}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1845" windowWidth="25875" windowHeight="11115" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paises" sheetId="41" r:id="rId1"/>
+    <sheet name="Pagos" sheetId="41" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -219,7 +219,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -705,7 +704,6 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,6 +712,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
@@ -722,15 +729,6 @@
     <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,20 +929,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
     <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31FF3F9C-B54F-4C7A-8CE2-A9770E610D01}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BE1261-0534-486C-B5E7-FE8934382FBA}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Fecha de abono</t>
   </si>
   <si>
-    <t>Payment_date</t>
-  </si>
-  <si>
     <t>Tipo de pago</t>
   </si>
   <si>
@@ -101,16 +98,20 @@
     <t>Proveedor del recurso</t>
   </si>
   <si>
-    <t>Resource_provider</t>
+    <t>Issued_date</t>
+  </si>
+  <si>
+    <t>Resource_provider_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -199,7 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -219,6 +220,11 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -609,15 +615,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
@@ -636,31 +642,31 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,31 +674,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
@@ -721,17 +727,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -928,6 +923,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
@@ -937,17 +943,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -964,4 +959,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52BE1261-0534-486C-B5E7-FE8934382FBA}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81CD14C7-A585-485F-86A3-704352D06EFE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4755" yWindow="-16320" windowWidth="38640" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Payment_id</t>
-  </si>
-  <si>
     <t>Fecha de abono</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Payment_type</t>
   </si>
   <si>
-    <t>Payment_method</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -71,37 +65,43 @@
     <t>Concepto del pago</t>
   </si>
   <si>
-    <t>Payment_concept</t>
-  </si>
-  <si>
-    <t>Customer_name</t>
-  </si>
-  <si>
-    <t>Resource_type</t>
-  </si>
-  <si>
     <t>Tipo de recurso</t>
   </si>
   <si>
     <t>Código de recurso</t>
   </si>
   <si>
-    <t>Resource_code</t>
-  </si>
-  <si>
     <t>Dirección del recurso</t>
   </si>
   <si>
-    <t>Resource_address</t>
-  </si>
-  <si>
     <t>Proveedor del recurso</t>
   </si>
   <si>
     <t>Issued_date</t>
   </si>
   <si>
-    <t>Resource_provider_name</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Payment_method.Name</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Customer.Name</t>
+  </si>
+  <si>
+    <t>Booking.Resource.Resource_type</t>
+  </si>
+  <si>
+    <t>Booking.Resource.Code</t>
+  </si>
+  <si>
+    <t>Booking.Resource.Address</t>
+  </si>
+  <si>
+    <t>Booking.Resource.Provider.Name</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -639,66 +639,66 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>

--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81CD14C7-A585-485F-86A3-704352D06EFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4755" yWindow="-16320" windowWidth="38640" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>.</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Tipo de pago</t>
   </si>
   <si>
-    <t>Payment_type</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Método de pago</t>
   </si>
   <si>
@@ -77,43 +71,18 @@
     <t>Proveedor del recurso</t>
   </si>
   <si>
-    <t>Issued_date</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Payment_method.Name</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Customer.Name</t>
-  </si>
-  <si>
-    <t>Booking.Resource.Resource_type</t>
-  </si>
-  <si>
-    <t>Booking.Resource.Code</t>
-  </si>
-  <si>
-    <t>Booking.Resource.Address</t>
-  </si>
-  <si>
-    <t>Booking.Resource.Provider.Name</t>
+    <t>Pagos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,12 +93,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -149,12 +112,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BFB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,41 +152,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -615,16 +570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
@@ -634,82 +587,60 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,15 +649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -923,6 +845,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -935,14 +866,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -961,6 +884,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>

--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CD715D-1DD8-4398-9BB2-CE926B91D449}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3075" windowWidth="28470" windowHeight="11385" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>.</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Pagos</t>
+  </si>
+  <si>
+    <t>Fecha de checkin</t>
+  </si>
+  <si>
+    <t>Fecha de checkout</t>
   </si>
 </sst>
 </file>
@@ -568,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,19 +588,19 @@
     <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="10" width="21.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -618,16 +626,22 @@
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -641,6 +655,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -649,6 +665,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -845,27 +881,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -882,23 +917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32CD715D-1DD8-4398-9BB2-CE926B91D449}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E14CD2-E12E-406F-B056-FA9807B963B1}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3075" windowWidth="28470" windowHeight="11385" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>.</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Fecha de checkout</t>
+  </si>
+  <si>
+    <t>Fecha de pago</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -186,6 +189,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -585,22 +591,23 @@
     <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="21.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -613,42 +620,45 @@
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -657,6 +667,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,26 +676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -881,26 +872,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -917,4 +909,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E14CD2-E12E-406F-B056-FA9807B963B1}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04621FAD-930B-4028-831A-47F191BDCBBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="-15885" windowWidth="21240" windowHeight="12810" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagos" sheetId="41" r:id="rId1"/>
@@ -35,21 +35,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Importe</t>
   </si>
   <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Fecha de abono</t>
-  </si>
-  <si>
     <t>Tipo de pago</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>Dirección del recurso</t>
   </si>
   <si>
-    <t>Proveedor del recurso</t>
-  </si>
-  <si>
     <t>Pagos</t>
   </si>
   <si>
@@ -81,6 +69,18 @@
   </si>
   <si>
     <t>Fecha de pago</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Nombre del proveedor</t>
+  </si>
+  <si>
+    <t>Id reserva</t>
+  </si>
+  <si>
+    <t>Fecha de emisión</t>
   </si>
 </sst>
 </file>
@@ -175,9 +175,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -191,6 +188,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,85 +580,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="21.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="45" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="21.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -668,6 +670,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,6 +679,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -872,27 +895,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -909,23 +931,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manpowergroupapps-my.sharepoint.com/personal/cesar_ramos_ciberexperis_es/Documents/Documents/Cotown/git/cotown-back/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{8156F13E-1658-4ED8-A134-CC8A1A507743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04621FAD-930B-4028-831A-47F191BDCBBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DAC74-178A-49FD-A368-E6798BF3D72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="-15885" windowWidth="21240" windowHeight="12810" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pagos" sheetId="41" r:id="rId1"/>
+    <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$Q$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,65 +36,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Pagos</t>
+  </si>
+  <si>
+    <t>Nombre del proveedor</t>
+  </si>
+  <si>
+    <t>Fecha de emisión</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Código de recurso</t>
+  </si>
+  <si>
+    <t>Tipo de piso</t>
+  </si>
+  <si>
+    <t>Tipo de plaza</t>
+  </si>
   <si>
     <t>Importe</t>
   </si>
   <si>
+    <t>Fecha de pago</t>
+  </si>
+  <si>
+    <t>Método de pago</t>
+  </si>
+  <si>
+    <t>Id reserva</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>Tipo de pago</t>
-  </si>
-  <si>
-    <t>Método de pago</t>
+    <t>Fecha de checkin</t>
+  </si>
+  <si>
+    <t>Fecha de checkout</t>
+  </si>
+  <si>
+    <t>Dirección del recurso</t>
   </si>
   <si>
     <t>Concepto del pago</t>
   </si>
   <si>
-    <t>Tipo de recurso</t>
-  </si>
-  <si>
-    <t>Código de recurso</t>
-  </si>
-  <si>
-    <t>Dirección del recurso</t>
-  </si>
-  <si>
-    <t>Pagos</t>
-  </si>
-  <si>
-    <t>Fecha de checkin</t>
-  </si>
-  <si>
-    <t>Fecha de checkout</t>
-  </si>
-  <si>
-    <t>Fecha de pago</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Nombre del proveedor</t>
-  </si>
-  <si>
-    <t>Id reserva</t>
-  </si>
-  <si>
-    <t>Fecha de emisión</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -123,6 +131,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -163,39 +177,54 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -268,9 +297,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFD1FFFC"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -579,356 +605,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="45" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="21.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="45" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="55.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="14">
+        <f>SUBTOTAL(9,I3:I99999)</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
-    <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <xsd:import namespace="965e701d-44ad-4371-a199-8fefe953808c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="220d4249-f262-4642-a86b-ff46de6e315d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="73eabf1b-ca55-4ef7-a122-c0a3080e3913" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="965e701d-44ad-4371-a199-8fefe953808c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1a032403-5a63-4c94-8ddc-badffde3c317}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="965e701d-44ad-4371-a199-8fefe953808c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DAC74-178A-49FD-A368-E6798BF3D72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82863D9D-EAD5-428E-ADB4-DD4C3EC1E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Pagos</t>
   </si>
@@ -86,10 +86,10 @@
     <t>Concepto del pago</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -608,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -639,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="14">
         <f>SUBTOTAL(9,I3:I99999)</f>
@@ -698,10 +696,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -709,12 +707,18 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>

--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249B4064-59E5-4206-945C-5BD960216FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158AA4C-C281-4C39-B68A-448443B0781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1">
-        <f>SUBTOTAL(9,I3:I3)</f>
+        <f>SUBTOTAL(9,I3:I99999)</f>
         <v>0</v>
       </c>
       <c r="J1" s="2"/>

--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158AA4C-C281-4C39-B68A-448443B0781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Pagos" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Pagos"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Pagos!$A$2:$Q$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Pagos</t>
   </si>
@@ -44,6 +25,12 @@
     <t>TOTAL:</t>
   </si>
   <si>
+    <t>Booking individual</t>
+  </si>
+  <si>
+    <t>Booking grupo</t>
+  </si>
+  <si>
     <t>Nombre del proveedor</t>
   </si>
   <si>
@@ -77,36 +64,33 @@
     <t>Cliente</t>
   </si>
   <si>
+    <t>Fecha de inicio</t>
+  </si>
+  <si>
+    <t>Fecha de fin</t>
+  </si>
+  <si>
     <t>Dirección del recurso</t>
   </si>
   <si>
     <t>Concepto del pago</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>Fecha de inicio</t>
-  </si>
-  <si>
-    <t>Fecha de fin</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Booking individual</t>
-  </si>
-  <si>
-    <t>Booking grupo</t>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0.0000000000_);\(\$#,##0.0000000000\)"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.0000000000_);($#,##0.0000000000)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -119,20 +103,20 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -146,31 +130,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00BFB2"/>
+        <fgColor rgb="FFa6a6a6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF8497b0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF00bfb2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFbfbfbf"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFadb9ca"/>
       </patternFill>
     </fill>
   </fills>
@@ -191,10 +171,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFA6A6A6"/>
+        <color rgb="FFa6a6a6"/>
       </left>
       <right style="thin">
-        <color rgb="FFA6A6A6"/>
+        <color rgb="FFa6a6a6"/>
       </right>
       <top/>
       <bottom/>
@@ -202,16 +182,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -219,78 +199,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,10 +289,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -342,71 +330,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,7 +422,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -457,11 +445,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -470,13 +458,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +474,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,10 +500,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -580,193 +568,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="55.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="16" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="16" customWidth="1"/>
-    <col min="24" max="25" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" style="21" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="21" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="22" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="22" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="21" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="21" width="55.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="21" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="22" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="21" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="22" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="5">
         <f>SUBTOTAL(9,I3:I99999)</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="R1" s="14" t="s">
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30" customFormat="1" s="9">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15" t="s">
+      <c r="T2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-    </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="str">
+      <c r="C3" s="16"/>
+      <c r="D3" s="18">
         <f>R3&amp;V3</f>
-        <v/>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8" t="str">
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20">
         <f>S3&amp;W3</f>
-        <v/>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8" t="str">
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="20">
         <f>T3&amp;X3</f>
-        <v>datedate</v>
-      </c>
-      <c r="O3" s="8" t="str">
+      </c>
+      <c r="O3" s="20">
         <f>U3&amp;Y3</f>
-        <v>datedate</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>15</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -1,23 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912FC7E-240E-48AC-BED0-5E38EF036AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Pagos"/>
+    <sheet name="Pagos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Pagos!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pagos!$A$2:$AA$2</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Pagos</t>
   </si>
@@ -83,14 +102,20 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>Nº orden TPV</t>
+  </si>
+  <si>
+    <t>Código autoriz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.0000000000_);($#,##0.0000000000)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.0000000000_);\(\$#,##0.0000000000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -116,7 +141,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -130,27 +155,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa6a6a6"/>
+        <fgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8497b0"/>
+        <fgColor rgb="FF8497B0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00bfb2"/>
+        <fgColor rgb="FF00BFB2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFbfbfbf"/>
+        <fgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFadb9ca"/>
+        <fgColor rgb="FFADB9CA"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,10 +196,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFa6a6a6"/>
+        <color rgb="FFA6A6A6"/>
       </left>
       <right style="thin">
-        <color rgb="FFa6a6a6"/>
+        <color rgb="FFA6A6A6"/>
       </right>
       <top/>
       <bottom/>
@@ -182,16 +207,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -199,86 +224,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -289,10 +305,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -330,71 +346,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,7 +438,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -445,11 +461,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -458,13 +474,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -474,7 +490,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -483,7 +499,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -492,7 +508,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -500,10 +516,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -568,81 +584,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="21" width="45.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="21" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="21" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="22" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="21" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="22" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="22" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="21" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="21" width="55.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="21" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="22" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="21" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
       <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5">
         <f>SUBTOTAL(9,I3:I99999)</f>
+        <v>0</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="7" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="T1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30" customFormat="1" s="9">
+    <row r="2" spans="1:27" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -670,99 +675,112 @@
         <v>11</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="W2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="18">
-        <f>R3&amp;V3</f>
+      <c r="D3" s="16" t="str">
+        <f>T3&amp;X3</f>
+        <v/>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="20">
-        <f>S3&amp;W3</f>
-      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="20">
-        <f>T3&amp;X3</f>
-      </c>
-      <c r="O3" s="20">
+      <c r="N3" s="17" t="str">
         <f>U3&amp;Y3</f>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+        <v/>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17" t="str">
+        <f>V3&amp;Z3</f>
+        <v>datedate</v>
+      </c>
+      <c r="Q3" s="17" t="str">
+        <f>W3&amp;AA3</f>
+        <v>datedate</v>
+      </c>
       <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="AA3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AA2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/templates/report/pagos.xlsx
+++ b/templates/report/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912FC7E-240E-48AC-BED0-5E38EF036AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64E9A03-BB38-40F0-9A84-51F56E7B12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -282,6 +282,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +593,7 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,8 +606,9 @@
     <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -726,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
         <v>20</v>
@@ -744,8 +748,8 @@
       <c r="J3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17" t="str">
         <f>U3&amp;Y3</f>
@@ -782,5 +786,6 @@
   </sheetData>
   <autoFilter ref="A2:AA2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>